--- a/Раскладка.xlsx
+++ b/Раскладка.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="360" yWindow="75" windowWidth="20940" windowHeight="9855"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ракладка" sheetId="1" r:id="rId1"/>
+    <sheet name="dropdown" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="84">
   <si>
     <t>магазин</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Суп из пакета 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Халва </t>
-  </si>
-  <si>
     <t>Мармелад</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Хлебцы молодцы</t>
   </si>
   <si>
-    <t>Хлеб ржаной</t>
-  </si>
-  <si>
     <t>Хлеб пшеничный</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>75 ул Ахинтам, магазин))</t>
   </si>
   <si>
-    <t>Закупка в Б. Кичмай 03.01.2019</t>
-  </si>
-  <si>
     <t>Ужин в Сочи</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
     <t>Big Bon</t>
   </si>
   <si>
-    <t>Шпроты</t>
-  </si>
-  <si>
     <t>Мюсли Ого фруктовые</t>
   </si>
   <si>
@@ -189,20 +177,104 @@
     <t>Бекон</t>
   </si>
   <si>
-    <t>Булочки чемпион</t>
-  </si>
-  <si>
     <t>Завтрак (30.12, 31.12)</t>
   </si>
   <si>
     <t xml:space="preserve">Колбаса с/к </t>
+  </si>
+  <si>
+    <t>Тунец</t>
+  </si>
+  <si>
+    <t>Из Москвы на 4 раза</t>
+  </si>
+  <si>
+    <t>Закупка в Москве</t>
+  </si>
+  <si>
+    <t>Закупка в Б. Кичмай (до обеда) 03.01.2019</t>
+  </si>
+  <si>
+    <t>Суп из пакета</t>
+  </si>
+  <si>
+    <t>Продукт</t>
+  </si>
+  <si>
+    <t>Покупает и несет</t>
+  </si>
+  <si>
+    <t>Вес</t>
+  </si>
+  <si>
+    <t>Коммент</t>
+  </si>
+  <si>
+    <t>Леша</t>
+  </si>
+  <si>
+    <t>Надя</t>
+  </si>
+  <si>
+    <t>универсальная or смесь трав</t>
+  </si>
+  <si>
+    <t>2 разные</t>
+  </si>
+  <si>
+    <t>2 шт</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
+  </si>
+  <si>
+    <t>на 4 раза</t>
+  </si>
+  <si>
+    <t>7 разных</t>
+  </si>
+  <si>
+    <t>2 уп по 100г</t>
+  </si>
+  <si>
+    <t>1 уп</t>
+  </si>
+  <si>
+    <t>с поезда</t>
+  </si>
+  <si>
+    <t>Бекон нарезка</t>
+  </si>
+  <si>
+    <t>4 пакетика</t>
+  </si>
+  <si>
+    <t>на 2 раза</t>
+  </si>
+  <si>
+    <t>оставить часть на ужин 31.12</t>
+  </si>
+  <si>
+    <t>1 банка</t>
+  </si>
+  <si>
+    <t>Огурец</t>
+  </si>
+  <si>
+    <t>Помидор</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>сожрать 1/2, остальное оставить на о. 31.12, з. 1.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,8 +283,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +360,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -400,11 +493,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -413,25 +539,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -443,56 +602,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,6 +623,50 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -522,13 +685,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>83822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>369765</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>132447</xdr:rowOff>
@@ -559,6 +722,16 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:A3" totalsRowShown="0">
+  <autoFilter ref="A1:A3"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Столбец1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -848,189 +1021,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
-    <col min="16" max="16" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="25">
         <v>43465</v>
       </c>
-      <c r="F2" s="39">
+      <c r="G2" s="25">
         <v>43466</v>
       </c>
-      <c r="G2" s="39">
+      <c r="H2" s="25">
         <v>43467</v>
       </c>
-      <c r="H2" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="39">
+      <c r="I2" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="25">
         <v>43468</v>
       </c>
-      <c r="J2" s="39">
+      <c r="K2" s="25">
         <v>43469</v>
       </c>
-      <c r="K2" s="39">
+      <c r="L2" s="25">
         <v>43470</v>
       </c>
-      <c r="L2" s="39">
+      <c r="M2" s="25">
         <v>43471</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="P2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="28"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>60</v>
       </c>
       <c r="D3" s="6">
-        <f>C3*$B$2</f>
+        <f t="shared" ref="D3:D41" si="0">C3*$B$2</f>
         <v>120</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26">
-        <f>SUM(I3:L3)</f>
-        <v>240</v>
-      </c>
-      <c r="I3" s="26">
+      <c r="E3" s="30">
+        <f>J3</f>
+        <v>120</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="16">
+        <f>SUM(K3:M3)</f>
+        <v>120</v>
+      </c>
+      <c r="J3" s="17">
         <f>$D$3</f>
         <v>120</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26">
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16">
         <f>$D$3</f>
         <v>120</v>
       </c>
-      <c r="O3" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="12" t="s">
+      <c r="P3" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4">
         <v>60</v>
       </c>
       <c r="D4" s="6">
-        <f>C4*$B$2</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="22">
+      <c r="E4" s="31">
+        <f>SUM(G4:H4)</f>
+        <v>120</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="14">
         <f>$D$4</f>
         <v>120</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22">
-        <f>SUM(I4:L4)</f>
+      <c r="H4" s="31"/>
+      <c r="I4" s="14">
+        <f t="shared" ref="I4:I18" si="1">SUM(K4:M4)</f>
         <v>120</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22">
+      <c r="J4" s="2"/>
+      <c r="K4" s="14">
         <f>$D$4</f>
         <v>120</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="12" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4">
         <v>60</v>
       </c>
       <c r="D5" s="6">
-        <f>C5*$B$2</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22">
+      <c r="E5" s="31">
+        <f t="shared" ref="E5:E18" si="2">SUM(G5:H5)</f>
+        <v>120</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="31">
         <f>$D$5</f>
         <v>120</v>
       </c>
-      <c r="H5" s="22">
-        <f>SUM(I5:L5)</f>
+      <c r="I5" s="14">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22">
+      <c r="J5" s="2"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14">
         <f>$D$5</f>
         <v>120</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="3" t="s">
+      <c r="M5" s="14"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="4">
@@ -1040,33 +1229,37 @@
         <f>C6*$B$2</f>
         <v>50</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22">
-        <f>SUM(I6:L6)</f>
-        <v>100</v>
-      </c>
-      <c r="I6" s="22">
+      <c r="E6" s="31">
+        <f>J6</f>
+        <v>50</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="14">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J6" s="2">
         <f>$D$6</f>
         <v>50</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14">
         <f>$D$6</f>
         <v>50</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="P6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="12" t="s">
+      <c r="Q6" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="4">
@@ -1076,1303 +1269,2194 @@
         <f>C7*$B$2</f>
         <v>80</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="22">
+      <c r="E7" s="31">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="14">
         <f>$D$7</f>
         <v>80</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22">
-        <f>SUM(I7:L7)</f>
-        <v>80</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22">
+      <c r="H7" s="31"/>
+      <c r="I7" s="14">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="14">
         <f>$D$7</f>
         <v>80</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="2" t="s">
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4">
         <v>20</v>
       </c>
       <c r="D8" s="6">
-        <f>C8*$B$2</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22">
+      <c r="E8" s="31">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="31">
         <f>$D$8</f>
         <v>40</v>
       </c>
-      <c r="H8" s="22">
-        <f>SUM(I8:L8)</f>
+      <c r="I8" s="14">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22">
+      <c r="J8" s="2"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14">
         <f>$D$8</f>
         <v>40</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="12" t="s">
+      <c r="M8" s="14"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="5">
         <v>30</v>
       </c>
       <c r="D9" s="7">
-        <f>C9*$B$2</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22">
-        <f>SUM(I9:L9)</f>
-        <v>120</v>
-      </c>
-      <c r="I9" s="22">
+      <c r="E9" s="31">
+        <f>J9</f>
+        <v>60</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="14">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="J9" s="2">
         <f>$D$9</f>
         <v>60</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22">
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14">
         <f>$D$9</f>
         <v>60</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="12" t="s">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="4">
         <v>40</v>
       </c>
       <c r="D10" s="6">
-        <f>C10*$B$2</f>
-        <v>80</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="22">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E10" s="31">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="14">
         <f>$D$10</f>
         <v>80</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22">
-        <f>SUM(I10:L10)</f>
-        <v>80</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22">
+      <c r="H10" s="31"/>
+      <c r="I10" s="14">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="14">
         <f>$D$10</f>
         <v>80</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="O10" s="16" t="s">
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="P10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="12" t="s">
-        <v>42</v>
+      <c r="Q10" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="4">
         <v>30</v>
       </c>
       <c r="D11" s="6">
-        <f>C11*$B$2</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22">
+      <c r="E11" s="31">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="31">
         <f>$D$11</f>
         <v>60</v>
       </c>
-      <c r="H11" s="22">
-        <f>SUM(I11:L11)</f>
+      <c r="I11" s="14">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22">
+      <c r="J11" s="2"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14">
         <f>$D$11</f>
         <v>60</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="12" t="s">
-        <v>39</v>
+      <c r="M11" s="14"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="5">
         <v>40</v>
       </c>
       <c r="D12" s="7">
-        <f>C12*$B$2</f>
-        <v>80</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22">
-        <f>SUM(I12:L12)</f>
-        <v>160</v>
-      </c>
-      <c r="I12" s="22">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E12" s="31">
+        <f>G12</f>
+        <v>80</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="14">
         <f>$D$12</f>
         <v>80</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22">
+      <c r="H12" s="31"/>
+      <c r="I12" s="14">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14">
         <f>$D$12</f>
         <v>80</v>
       </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="12" t="s">
-        <v>37</v>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="4">
         <v>25</v>
       </c>
       <c r="D13" s="6">
-        <f>C13*$B$2</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="22">
+      <c r="E13" s="31">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="H13" s="31">
         <f>$D$13</f>
         <v>50</v>
       </c>
-      <c r="G13" s="22">
+      <c r="I13" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J13" s="2">
         <f>$D$13</f>
         <v>50</v>
       </c>
-      <c r="H13" s="22">
-        <f>SUM(I13:L13)</f>
-        <v>100</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22">
+      <c r="K13" s="14">
         <f>$D$13</f>
         <v>50</v>
       </c>
-      <c r="K13" s="22">
+      <c r="L13" s="14">
         <f>$D$13</f>
         <v>50</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="12" t="s">
-        <v>43</v>
+      <c r="M13" s="14"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="5">
         <v>50</v>
       </c>
       <c r="D14" s="6">
-        <f>C14*$B$2</f>
-        <v>100</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22">
-        <f>SUM(I14:L14)</f>
-        <v>200</v>
-      </c>
-      <c r="I14" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E14" s="31">
+        <f>J14</f>
+        <v>100</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J14" s="2">
         <f>$D$14</f>
         <v>100</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22">
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14">
         <f>$D$14</f>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="12" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5">
         <v>40</v>
       </c>
       <c r="D15" s="6">
-        <f>C15*$B$2</f>
-        <v>80</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="22">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E15" s="31">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="14">
         <f>$D$15</f>
         <v>80</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22">
-        <f>SUM(I15:L15)</f>
-        <v>80</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22">
+      <c r="H15" s="31"/>
+      <c r="I15" s="14">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="14">
         <f>$D$15</f>
         <v>80</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="12" t="s">
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="5">
         <v>40</v>
       </c>
       <c r="D16" s="6">
-        <f>C16*$B$2</f>
-        <v>80</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E16" s="31">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="31">
         <f>$D$16</f>
         <v>80</v>
       </c>
-      <c r="H16" s="22">
-        <f>SUM(I16:L16)</f>
-        <v>80</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22">
+      <c r="I16" s="14">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14">
         <f>$D$16</f>
         <v>80</v>
       </c>
-      <c r="L16" s="22"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="12" t="s">
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="5">
         <v>5</v>
       </c>
       <c r="D17" s="6">
-        <f>C17*$B$2</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="22">
+      <c r="E17" s="31">
+        <f>SUM(G17:H17)+J17</f>
+        <v>30</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="14">
         <f>D17</f>
         <v>10</v>
       </c>
-      <c r="G17" s="22">
-        <f t="shared" ref="G17" si="0">F17</f>
+      <c r="H17" s="31">
+        <f t="shared" ref="H17" si="3">G17</f>
         <v>10</v>
       </c>
-      <c r="H17" s="22">
-        <f>SUM(I17:L17)</f>
-        <v>40</v>
-      </c>
-      <c r="I17" s="22">
-        <f>G17</f>
+      <c r="I17" s="14">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J17" s="2">
+        <f>H17</f>
         <v>10</v>
       </c>
-      <c r="J17" s="22">
-        <f>I17</f>
+      <c r="K17" s="14">
+        <f t="shared" ref="K17:M18" si="4">J17</f>
         <v>10</v>
       </c>
-      <c r="K17" s="22">
-        <f>J17</f>
+      <c r="L17" s="14">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="L17" s="22">
-        <f>K17</f>
+      <c r="M17" s="14">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5">
         <v>10</v>
       </c>
       <c r="D18" s="6">
-        <f>C18*$B$2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="14">
+      <c r="E18" s="13">
+        <f>SUM(G18:H18)+J18</f>
+        <v>60</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="13">
         <f>D18</f>
         <v>20</v>
       </c>
-      <c r="G18" s="14">
-        <f t="shared" ref="G18" si="1">F18</f>
+      <c r="H18" s="54">
+        <f t="shared" ref="H18" si="5">G18</f>
         <v>20</v>
       </c>
-      <c r="H18" s="14">
-        <f>SUM(I18:L18)</f>
-        <v>80</v>
-      </c>
-      <c r="I18" s="14">
-        <f>G18</f>
+      <c r="I18" s="13">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="J18" s="3">
+        <f>H18</f>
         <v>20</v>
       </c>
-      <c r="J18" s="14">
-        <f>I18</f>
+      <c r="K18" s="13">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="K18" s="14">
-        <f>J18</f>
+      <c r="L18" s="13">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="L18" s="14">
-        <f>K18</f>
+      <c r="M18" s="13">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="5">
         <v>35</v>
       </c>
       <c r="D19" s="7">
-        <f>C19*$B$2</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="31">
+        <f>SUM(F19:M19)</f>
+        <v>210</v>
+      </c>
+      <c r="F19" s="19">
         <f>$D$19</f>
         <v>70</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30">
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20">
         <v>0</v>
       </c>
-      <c r="I19" s="30">
+      <c r="J19" s="19">
         <f>$D$19</f>
         <v>70</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30">
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19">
         <f>$D$19</f>
         <v>70</v>
       </c>
-      <c r="M19" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="9" t="s">
+      <c r="N19" s="47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="5">
         <v>35</v>
       </c>
       <c r="D20" s="7">
-        <f>C20*$B$2</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31">
+      <c r="E20" s="31">
+        <f t="shared" ref="E20:E21" si="6">SUM(F20:M20)</f>
+        <v>140</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20">
         <f>$D$20</f>
         <v>70</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20">
         <v>0</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31">
+      <c r="J20" s="20"/>
+      <c r="K20" s="20">
         <f>$D$20</f>
         <v>70</v>
       </c>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="47"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="9" t="s">
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="48"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="52"/>
+      <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="5">
         <v>35</v>
       </c>
       <c r="D21" s="7">
-        <f>C21*$B$2</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32">
+      <c r="E21" s="31">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21">
         <f>$D$21</f>
         <v>70</v>
       </c>
-      <c r="H21" s="32">
+      <c r="I21" s="21">
         <v>0</v>
       </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32">
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21">
         <f>$D$21</f>
         <v>70</v>
       </c>
-      <c r="L21" s="32"/>
-      <c r="M21" s="48"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="9" t="s">
-        <v>59</v>
+      <c r="M21" s="21"/>
+      <c r="N21" s="49"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="52"/>
+      <c r="B22" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C22" s="5">
         <v>40</v>
       </c>
       <c r="D22" s="6">
-        <f>C22*$B$2</f>
-        <v>80</v>
-      </c>
-      <c r="E22" s="22">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" ref="E20:E41" si="7">SUM(F22:H22)</f>
+        <v>240</v>
+      </c>
+      <c r="F22" s="14">
         <f>$D$22</f>
         <v>80</v>
       </c>
-      <c r="F22" s="22">
-        <f t="shared" ref="F22:L22" si="2">$D$22</f>
-        <v>80</v>
-      </c>
-      <c r="G22" s="22">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="H22" s="22">
-        <f>SUM(I22:L22)</f>
+      <c r="G22" s="14">
+        <f t="shared" ref="G22:M22" si="8">$D$22</f>
+        <v>80</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" ref="I22:I33" si="9">SUM(J22:M22)</f>
         <v>320</v>
       </c>
-      <c r="I22" s="22">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="J22" s="22">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="K22" s="22">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="L22" s="26">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="M22" s="36"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="9" t="s">
-        <v>39</v>
+      <c r="J22" s="14">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="N22" s="23"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="52"/>
+      <c r="B23" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C23" s="5">
         <v>40</v>
       </c>
       <c r="D23" s="7">
-        <f>C23*$B$2</f>
-        <v>80</v>
-      </c>
-      <c r="E23" s="22">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E23" s="31">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="F23" s="14">
         <f>$D$23</f>
         <v>80</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22">
-        <f>SUM(I23:L23)</f>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14">
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
-      <c r="I23" s="22">
+      <c r="J23" s="14">
         <f>$D$23</f>
         <v>80</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22">
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14">
         <f>$D$23</f>
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="52"/>
+      <c r="B24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
         <v>25</v>
       </c>
       <c r="D24" s="6">
-        <f>C24*$B$2</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22">
+      <c r="E24" s="31">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14">
         <f>$D$24</f>
         <v>50</v>
       </c>
-      <c r="G24" s="22">
+      <c r="H24" s="14">
         <f>$D$24</f>
         <v>50</v>
       </c>
-      <c r="H24" s="22">
-        <f>SUM(I24:L24)</f>
-        <v>100</v>
-      </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22">
+      <c r="I24" s="14">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14">
         <f>$D$24</f>
         <v>50</v>
       </c>
-      <c r="K24" s="22">
+      <c r="L24" s="14">
         <f>$D$24</f>
         <v>50</v>
       </c>
-      <c r="L24" s="22"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="9" t="s">
-        <v>27</v>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C25" s="5">
         <v>50</v>
       </c>
       <c r="D25" s="7">
-        <f>C25*$B$2</f>
-        <v>100</v>
-      </c>
-      <c r="E25" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E25" s="31">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="F25" s="14">
         <f>$D$25</f>
         <v>100</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22">
-        <f>SUM(I25:L25)</f>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14">
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
-      <c r="I25" s="22">
+      <c r="J25" s="14">
         <f>$D$25</f>
         <v>100</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22">
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14">
         <f>$D$25</f>
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="9" t="s">
-        <v>28</v>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C26" s="5">
         <v>45</v>
       </c>
       <c r="D26" s="7">
-        <f>C26*$B$2</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22">
+      <c r="E26" s="31">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14">
         <f>$D$26</f>
         <v>90</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22">
-        <f>SUM(I26:L26)</f>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14">
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22">
+      <c r="J26" s="14"/>
+      <c r="K26" s="14">
         <f>$D$26</f>
         <v>90</v>
       </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="9" t="s">
-        <v>29</v>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C27" s="5">
         <v>55</v>
       </c>
       <c r="D27" s="7">
-        <f>C27*$B$2</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22">
+      <c r="E27" s="13">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14">
         <f>$D$27</f>
         <v>110</v>
       </c>
-      <c r="H27" s="22">
-        <f>SUM(I27:L27)</f>
+      <c r="I27" s="14">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22">
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14">
         <f>$D$27</f>
         <v>110</v>
       </c>
-      <c r="L27" s="22"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="9" t="s">
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
         <v>30</v>
       </c>
+      <c r="B28" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="C28" s="5">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D28" s="7">
-        <f>C28*$B$2</f>
-        <v>6</v>
-      </c>
-      <c r="E28" s="25">
-        <f>D28</f>
-        <v>6</v>
-      </c>
-      <c r="F28" s="25">
-        <f t="shared" ref="F28:G28" si="3">E28</f>
-        <v>6</v>
-      </c>
-      <c r="G28" s="25">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H28" s="14">
-        <f>SUM(I28:L28)</f>
-        <v>24</v>
-      </c>
-      <c r="I28" s="25">
-        <f>G28</f>
-        <v>6</v>
-      </c>
-      <c r="J28" s="25">
-        <f>I28</f>
-        <v>6</v>
-      </c>
-      <c r="K28" s="25">
-        <f>J28</f>
-        <v>6</v>
-      </c>
-      <c r="L28" s="25">
-        <f>K28</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="11" t="s">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E28" s="31">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="F28" s="16">
+        <f>$D$28</f>
+        <v>80</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="J28" s="16">
+        <f>$D$28</f>
+        <v>80</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16">
+        <f>$D$28</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="5">
         <v>40</v>
       </c>
       <c r="D29" s="7">
-        <f>C29*$B$2</f>
-        <v>80</v>
-      </c>
-      <c r="E29" s="26">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E29" s="31">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14">
         <f>$D$29</f>
         <v>80</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26">
-        <f>SUM(I29:L29)</f>
-        <v>160</v>
-      </c>
-      <c r="I29" s="26">
+      <c r="H29" s="14"/>
+      <c r="I29" s="14">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14">
         <f>$D$29</f>
         <v>80</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26">
-        <f>$D$29</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="11" t="s">
-        <v>33</v>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
+      <c r="B30" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C30" s="5">
         <v>40</v>
       </c>
       <c r="D30" s="7">
-        <f>C30*$B$2</f>
-        <v>80</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13">
         <f>$D$30</f>
         <v>80</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22">
-        <f>SUM(I30:L30)</f>
-        <v>80</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22">
+      <c r="I30" s="13">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13">
         <f>$D$30</f>
         <v>80</v>
       </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="11" t="s">
-        <v>50</v>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C31" s="5">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D31" s="7">
-        <f>C31*$B$2</f>
-        <v>80</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="E31" s="31">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="F31" s="16">
         <f>$D$31</f>
-        <v>80</v>
-      </c>
-      <c r="H31" s="14">
-        <f>SUM(I31:L31)</f>
-        <v>80</v>
-      </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14">
+        <v>140</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16">
+        <f t="shared" si="9"/>
+        <v>140</v>
+      </c>
+      <c r="J31" s="16">
         <f>$D$31</f>
-        <v>80</v>
-      </c>
-      <c r="L31" s="14"/>
-    </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="5">
+        <v>80</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="E32" s="31">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14">
+        <f>$D$32</f>
+        <v>160</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14">
+        <f>$D$32</f>
+        <v>160</v>
+      </c>
+      <c r="L32" s="14"/>
+      <c r="M32" s="41"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C33" s="5">
         <v>70</v>
       </c>
-      <c r="D32" s="7">
-        <f>C32*$B$2</f>
+      <c r="D33" s="7">
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="E32" s="26">
-        <f>$D$32</f>
+      <c r="E33" s="31">
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26">
-        <f>SUM(I32:L32)</f>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14">
+        <f>$D$33</f>
         <v>140</v>
       </c>
-      <c r="I32" s="26">
-        <f>$D$32</f>
+      <c r="I33" s="14">
+        <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="5">
-        <v>80</v>
-      </c>
-      <c r="D33" s="7">
-        <f>C33*$B$2</f>
-        <v>160</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22">
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14">
         <f>$D$33</f>
-        <v>160</v>
-      </c>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22">
-        <f>SUM(I33:L33)</f>
-        <v>160</v>
-      </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22">
-        <f>$D$33</f>
-        <v>160</v>
-      </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="20"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="M33" s="41"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
-      <c r="B34" s="10" t="s">
-        <v>36</v>
+      <c r="B34" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C34" s="5">
-        <v>70</v>
-      </c>
-      <c r="D34" s="7">
-        <f>C34*$B$2</f>
-        <v>140</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22">
-        <f>$D$34</f>
-        <v>140</v>
-      </c>
-      <c r="H34" s="22">
-        <f>SUM(I34:L34)</f>
-        <v>140</v>
-      </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22">
-        <f>$D$34</f>
-        <v>140</v>
-      </c>
-      <c r="L34" s="20"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="5">
         <f>250/4</f>
         <v>62.5</v>
       </c>
+      <c r="D34" s="7">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="E34" s="31">
+        <f>SUM(F34:H34)+J34</f>
+        <v>500</v>
+      </c>
+      <c r="F34" s="12">
+        <f>D34</f>
+        <v>125</v>
+      </c>
+      <c r="G34" s="12">
+        <f t="shared" ref="G34:H34" si="10">F34</f>
+        <v>125</v>
+      </c>
+      <c r="H34" s="29">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="I34" s="28">
+        <f>SUM(J34:L34)</f>
+        <v>375</v>
+      </c>
+      <c r="J34" s="12">
+        <v>125</v>
+      </c>
+      <c r="K34" s="27">
+        <v>125</v>
+      </c>
+      <c r="L34" s="27">
+        <v>125</v>
+      </c>
+      <c r="M34" s="43"/>
+      <c r="N34" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="5">
+        <v>40</v>
+      </c>
       <c r="D35" s="7">
-        <f>C35*$B$2</f>
-        <v>125</v>
-      </c>
-      <c r="E35" s="13">
-        <f>D35</f>
-        <v>125</v>
-      </c>
-      <c r="F35" s="13">
-        <f t="shared" ref="F35:G35" si="4">E35</f>
-        <v>125</v>
-      </c>
-      <c r="G35" s="13">
-        <f t="shared" si="4"/>
-        <v>125</v>
-      </c>
-      <c r="H35" s="13">
-        <v>0</v>
-      </c>
-      <c r="I35" s="13">
-        <f>G35</f>
-        <v>125</v>
-      </c>
-      <c r="J35" s="13">
-        <f>I35</f>
-        <v>125</v>
-      </c>
-      <c r="K35" s="13">
-        <f>J35</f>
-        <v>125</v>
-      </c>
-      <c r="L35" s="20"/>
-      <c r="M35" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E35" s="31">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="F35" s="14">
+        <f>$D$35</f>
+        <v>80</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14">
+        <f t="shared" ref="I35:I41" si="11">SUM(J35:M35)</f>
+        <v>80</v>
+      </c>
+      <c r="J35" s="14">
+        <f>$D$35</f>
+        <v>80</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="41"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="35"/>
-      <c r="B36" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="5">
-        <v>40</v>
-      </c>
-      <c r="D36" s="7">
-        <f>C36*$B$2</f>
-        <v>80</v>
-      </c>
-      <c r="E36" s="22">
+      <c r="B36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="4">
+        <v>25</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E36" s="31">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14">
         <f>$D$36</f>
-        <v>80</v>
-      </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22">
-        <f>SUM(I36:L36)</f>
-        <v>80</v>
-      </c>
-      <c r="I36" s="22">
+        <v>50</v>
+      </c>
+      <c r="H36" s="14">
         <f>$D$36</f>
-        <v>80</v>
-      </c>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="20"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I36" s="14">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14">
+        <f>$D$36</f>
+        <v>50</v>
+      </c>
+      <c r="L36" s="14">
+        <f>$D$36</f>
+        <v>50</v>
+      </c>
+      <c r="M36" s="41"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
-      <c r="B37" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="4">
-        <v>25</v>
-      </c>
-      <c r="D37" s="6">
-        <f>C37*$B$2</f>
+      <c r="B37" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="5">
         <v>50</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22">
-        <f>$D$37</f>
-        <v>50</v>
-      </c>
-      <c r="G37" s="22">
-        <f>$D$37</f>
-        <v>50</v>
-      </c>
-      <c r="H37" s="22">
-        <f>SUM(I37:L37)</f>
-        <v>100</v>
-      </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22">
-        <f>$D$37</f>
-        <v>50</v>
-      </c>
-      <c r="K37" s="22">
-        <f>$D$37</f>
-        <v>50</v>
-      </c>
-      <c r="L37" s="20"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D37" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E37" s="31">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="F37" s="14">
+        <f>D37</f>
+        <v>100</v>
+      </c>
+      <c r="G37" s="14">
+        <f t="shared" ref="G37:H37" si="12">F37</f>
+        <v>100</v>
+      </c>
+      <c r="H37" s="14">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="I37" s="14">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+      <c r="J37" s="14">
+        <f>H37</f>
+        <v>100</v>
+      </c>
+      <c r="K37" s="14">
+        <f>J37</f>
+        <v>100</v>
+      </c>
+      <c r="L37" s="14">
+        <f>K37</f>
+        <v>100</v>
+      </c>
+      <c r="M37" s="41"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
-      <c r="B38" s="10" t="s">
-        <v>59</v>
+      <c r="B38" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C38" s="5">
         <v>50</v>
       </c>
       <c r="D38" s="7">
-        <f>C38*$B$2</f>
-        <v>100</v>
-      </c>
-      <c r="E38" s="22">
-        <f>D38</f>
-        <v>100</v>
-      </c>
-      <c r="F38" s="22">
-        <f t="shared" ref="F38:G38" si="5">E38</f>
-        <v>100</v>
-      </c>
-      <c r="G38" s="22">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="H38" s="22">
-        <f>SUM(I38:L38)</f>
-        <v>300</v>
-      </c>
-      <c r="I38" s="22">
-        <f>G38</f>
-        <v>100</v>
-      </c>
-      <c r="J38" s="22">
-        <f>I38</f>
-        <v>100</v>
-      </c>
-      <c r="K38" s="22">
-        <f>J38</f>
-        <v>100</v>
-      </c>
-      <c r="L38" s="20"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E38" s="31">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="F38" s="14">
+        <f>$D$38</f>
+        <v>100</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="J38" s="14">
+        <f>$D$38</f>
+        <v>100</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="41"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="5">
         <v>50</v>
       </c>
       <c r="D39" s="7">
-        <f>C39*$B$2</f>
-        <v>100</v>
-      </c>
-      <c r="E39" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E39" s="31">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14">
         <f>$D$39</f>
         <v>100</v>
       </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22">
-        <f>SUM(I39:L39)</f>
-        <v>100</v>
-      </c>
-      <c r="I39" s="22">
+      <c r="H39" s="14"/>
+      <c r="I39" s="14">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14">
         <f>$D$39</f>
         <v>100</v>
       </c>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="20"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L39" s="14"/>
+      <c r="M39" s="41"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
-      <c r="B40" s="10" t="s">
-        <v>25</v>
+      <c r="B40" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C40" s="5">
         <v>50</v>
       </c>
       <c r="D40" s="7">
-        <f>C40*$B$2</f>
-        <v>100</v>
-      </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E40" s="31">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14">
         <f>$D$40</f>
         <v>100</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22">
-        <f>SUM(I40:L40)</f>
-        <v>100</v>
-      </c>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22">
+      <c r="I40" s="14">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14">
         <f>$D$40</f>
         <v>100</v>
       </c>
-      <c r="K40" s="22"/>
-      <c r="L40" s="20"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="10" t="s">
-        <v>44</v>
+      <c r="M40" s="41"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
+      <c r="B41" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C41" s="5">
+        <v>3</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E41" s="13">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="F41" s="13">
+        <f>D41</f>
+        <v>6</v>
+      </c>
+      <c r="G41" s="13">
+        <f t="shared" ref="G41:H41" si="13">F41</f>
+        <v>6</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="I41" s="13">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="J41" s="13">
+        <f>H41</f>
+        <v>6</v>
+      </c>
+      <c r="K41" s="13">
+        <f>J41</f>
+        <v>6</v>
+      </c>
+      <c r="L41" s="13">
+        <f>K41</f>
+        <v>6</v>
+      </c>
+      <c r="M41" s="42"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1">
+        <f t="shared" ref="I42" si="14">SUM(J42:M42)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="59"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="16">
+        <f>E3</f>
+        <v>120</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="60">
+        <f>SUMIF(D46:D89,"Надя",C46:C89)</f>
+        <v>3430</v>
+      </c>
+      <c r="G46" s="58">
+        <f>SUMIF(D46:D89,"Леша",C46:C89)</f>
+        <v>3510</v>
+      </c>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="31"/>
+      <c r="B47" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="14">
+        <f t="shared" ref="C47:C54" si="15">E4</f>
+        <v>120</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="31"/>
+      <c r="B48" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="14">
+        <f t="shared" si="15"/>
+        <v>120</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
+      <c r="B49" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="14">
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="D41" s="7">
-        <f>C41*$B$2</f>
-        <v>100</v>
-      </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22">
-        <f>$D$41</f>
-        <v>100</v>
-      </c>
-      <c r="H41" s="22">
-        <f>SUM(I41:L41)</f>
-        <v>100</v>
-      </c>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22">
-        <f>$D$41</f>
-        <v>100</v>
-      </c>
-      <c r="L41" s="20"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="10" t="s">
+      <c r="D49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="B50" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="14">
+        <f t="shared" si="15"/>
+        <v>80</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="31"/>
+      <c r="B51" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="14">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="31"/>
+      <c r="B52" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="14">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="31"/>
+      <c r="B53" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="14">
+        <f t="shared" si="15"/>
+        <v>80</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="31"/>
+      <c r="B54" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="14">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="31"/>
+      <c r="B55" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="14">
+        <f>E13+E36</f>
+        <v>150</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="31"/>
+      <c r="B56" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="14">
+        <f>E24</f>
+        <v>100</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="31"/>
+      <c r="B57" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="14">
+        <f>E14+E38</f>
+        <v>200</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="31"/>
+      <c r="B58" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="14">
+        <f>E15</f>
+        <v>80</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="31"/>
+      <c r="B59" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="14">
+        <f>E16</f>
+        <v>80</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="31"/>
+      <c r="B60" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="14">
+        <f>E17</f>
         <v>30</v>
       </c>
-      <c r="C42" s="5">
-        <v>3</v>
-      </c>
-      <c r="D42" s="7">
-        <f>C42*$B$2</f>
+      <c r="D60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="31"/>
+      <c r="B61" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="14">
+        <f>E18</f>
+        <v>60</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="31"/>
+      <c r="B62" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="14">
+        <f>F19*7</f>
+        <v>490</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="31"/>
+      <c r="B63" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="14">
+        <f>E22+E37</f>
+        <v>540</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="31"/>
+      <c r="B64" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="14">
+        <f>E25</f>
+        <v>100</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="31"/>
+      <c r="B65" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="14">
+        <f>E26</f>
+        <v>90</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="31"/>
+      <c r="B66" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="14">
+        <f>E27</f>
+        <v>110</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="31"/>
+      <c r="B67" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="14">
+        <f>E28</f>
+        <v>80</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="31"/>
+      <c r="B68" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="14">
+        <f>E29</f>
+        <v>80</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="31"/>
+      <c r="B69" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="14">
+        <f>E30</f>
+        <v>80</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="31"/>
+      <c r="B70" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="14">
+        <f>E31</f>
+        <v>140</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="31"/>
+      <c r="B71" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="14">
+        <f>E32</f>
+        <v>160</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="31"/>
+      <c r="B72" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="14">
+        <f>E33</f>
+        <v>140</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="31"/>
+      <c r="B73" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="14">
+        <f>E34</f>
+        <v>500</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="31"/>
+      <c r="B74" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="14">
+        <f>E35</f>
+        <v>80</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="31"/>
+      <c r="B75" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="14">
+        <f>E39</f>
+        <v>100</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" s="14"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="33"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="31"/>
+      <c r="B76" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="14">
+        <f>E40</f>
+        <v>100</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E76" s="14"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="33"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="31"/>
+      <c r="B77" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="14">
+        <f>E41</f>
+        <v>18</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="14"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
+    </row>
+    <row r="78" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="31"/>
+      <c r="B78" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="13">
+        <v>50</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E78" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="14">
-        <f>D42</f>
-        <v>6</v>
-      </c>
-      <c r="F42" s="14">
-        <f t="shared" ref="F42:G42" si="6">E42</f>
-        <v>6</v>
-      </c>
-      <c r="G42" s="14">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="H42" s="14">
-        <f>SUM(I42:L42)</f>
-        <v>18</v>
-      </c>
-      <c r="I42" s="14">
-        <f>G42</f>
-        <v>6</v>
-      </c>
-      <c r="J42" s="14">
-        <f>I42</f>
-        <v>6</v>
-      </c>
-      <c r="K42" s="14">
-        <f>J42</f>
-        <v>6</v>
-      </c>
-      <c r="L42" s="21"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1">
-        <f t="shared" ref="H43" si="7">SUM(I43:L43)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+      <c r="B79" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="14">
+        <v>280</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E79" s="14"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="33"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="67"/>
+      <c r="B80" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E80" s="14"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="33"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="67"/>
+      <c r="B81" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="14">
+        <v>20</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K81" s="33"/>
+      <c r="L81" s="33"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="67"/>
+      <c r="B82" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="14">
+        <f>75*2</f>
+        <v>150</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K82" s="33"/>
+      <c r="L82" s="33"/>
+    </row>
+    <row r="83" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="67"/>
+      <c r="B83" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="28">
+        <v>400</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="K83" s="33"/>
+      <c r="L83" s="33"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="67"/>
+      <c r="B84" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" s="28">
+        <v>140</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="67"/>
+      <c r="B85" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="14">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="67"/>
+      <c r="B86" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="14">
+        <v>100</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="14"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="67"/>
+      <c r="B87" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="14">
+        <v>100</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="14"/>
+    </row>
+    <row r="88" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="67"/>
+      <c r="B88" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C88" s="14">
+        <v>300</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="68"/>
+      <c r="B89" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89" s="13">
+        <v>150</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E89" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="A19:A28"/>
+  <mergeCells count="11">
+    <mergeCell ref="A79:A89"/>
+    <mergeCell ref="A31:A41"/>
     <mergeCell ref="A3:A18"/>
-    <mergeCell ref="E3:E18"/>
-    <mergeCell ref="L32:L42"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="F3:F18"/>
+    <mergeCell ref="M31:M41"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>dropdown!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D46:D63 D64:D89</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
